--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1985.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1985.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.218372139740665</v>
+        <v>0.7591879963874817</v>
       </c>
       <c r="B1">
-        <v>2.243284748286784</v>
+        <v>0.9178144335746765</v>
       </c>
       <c r="C1">
-        <v>8.404333312321947</v>
+        <v>1.24742865562439</v>
       </c>
       <c r="D1">
-        <v>2.580882859585907</v>
+        <v>2.941295862197876</v>
       </c>
       <c r="E1">
-        <v>1.164611640609792</v>
+        <v>2.589521408081055</v>
       </c>
     </row>
   </sheetData>
